--- a/com.test.testAndroidMFP/users/users.xlsx
+++ b/com.test.testAndroidMFP/users/users.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>UserName</t>
   </si>
@@ -43,6 +43,60 @@
   </si>
   <si>
     <t>1897544</t>
+  </si>
+  <si>
+    <t>stranger397991</t>
+  </si>
+  <si>
+    <t>stranger397991@mail.com</t>
+  </si>
+  <si>
+    <t>1397991</t>
+  </si>
+  <si>
+    <t>stranger568749</t>
+  </si>
+  <si>
+    <t>stranger568749@mail.com</t>
+  </si>
+  <si>
+    <t>1568749</t>
+  </si>
+  <si>
+    <t>stranger240658</t>
+  </si>
+  <si>
+    <t>stranger240658@mail.com</t>
+  </si>
+  <si>
+    <t>1240658</t>
+  </si>
+  <si>
+    <t>stranger123582</t>
+  </si>
+  <si>
+    <t>stranger123582@mail.com</t>
+  </si>
+  <si>
+    <t>1123582</t>
+  </si>
+  <si>
+    <t>stranger925088</t>
+  </si>
+  <si>
+    <t>stranger925088@mail.com</t>
+  </si>
+  <si>
+    <t>1925088</t>
+  </si>
+  <si>
+    <t>stranger354390</t>
+  </si>
+  <si>
+    <t>stranger839626@mail.com</t>
+  </si>
+  <si>
+    <t>1534172</t>
   </si>
 </sst>
 </file>
@@ -373,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -381,9 +435,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="26.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -408,6 +462,72 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/com.test.testAndroidMFP/users/users.xlsx
+++ b/com.test.testAndroidMFP/users/users.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GitHub_tests\com.test.testAndroidMFP\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB273766-FBE2-446F-98EC-93CE57CB7562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BAF42A-C06E-4D11-A1CC-CE15CC8438FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12975" yWindow="4800" windowWidth="23025" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13905" yWindow="5700" windowWidth="23025" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>UserName</t>
   </si>
@@ -36,67 +36,31 @@
     <t>Password</t>
   </si>
   <si>
-    <t>stranger897544</t>
-  </si>
-  <si>
-    <t>stranger897544@mail.com</t>
-  </si>
-  <si>
-    <t>1897544</t>
-  </si>
-  <si>
-    <t>stranger397991</t>
-  </si>
-  <si>
-    <t>stranger397991@mail.com</t>
-  </si>
-  <si>
-    <t>1397991</t>
-  </si>
-  <si>
-    <t>stranger568749</t>
-  </si>
-  <si>
-    <t>stranger568749@mail.com</t>
-  </si>
-  <si>
-    <t>1568749</t>
-  </si>
-  <si>
-    <t>stranger240658</t>
-  </si>
-  <si>
-    <t>stranger240658@mail.com</t>
-  </si>
-  <si>
-    <t>1240658</t>
-  </si>
-  <si>
-    <t>stranger123582</t>
-  </si>
-  <si>
-    <t>stranger123582@mail.com</t>
-  </si>
-  <si>
-    <t>1123582</t>
-  </si>
-  <si>
-    <t>stranger925088</t>
-  </si>
-  <si>
-    <t>stranger925088@mail.com</t>
-  </si>
-  <si>
-    <t>1925088</t>
-  </si>
-  <si>
-    <t>stranger354390</t>
-  </si>
-  <si>
-    <t>stranger839626@mail.com</t>
-  </si>
-  <si>
-    <t>1534172</t>
+    <t>stranger495357</t>
+  </si>
+  <si>
+    <t>stranger495357@mail.com</t>
+  </si>
+  <si>
+    <t>1495357</t>
+  </si>
+  <si>
+    <t>str6298</t>
+  </si>
+  <si>
+    <t>str6298@mail.us</t>
+  </si>
+  <si>
+    <t>116298</t>
+  </si>
+  <si>
+    <t>sr517</t>
+  </si>
+  <si>
+    <t>s440@mail.com</t>
+  </si>
+  <si>
+    <t>111638</t>
   </si>
 </sst>
 </file>
@@ -427,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,50 +448,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/com.test.testAndroidMFP/users/users.xlsx
+++ b/com.test.testAndroidMFP/users/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GitHub_tests\com.test.testAndroidMFP\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BAF42A-C06E-4D11-A1CC-CE15CC8438FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47E616-7A15-4C50-97E4-C9C13EF99129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="5700" windowWidth="23025" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="4365" windowWidth="20760" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>UserName</t>
   </si>
@@ -36,31 +36,25 @@
     <t>Password</t>
   </si>
   <si>
-    <t>stranger495357</t>
-  </si>
-  <si>
-    <t>stranger495357@mail.com</t>
-  </si>
-  <si>
-    <t>1495357</t>
-  </si>
-  <si>
-    <t>str6298</t>
-  </si>
-  <si>
-    <t>str6298@mail.us</t>
-  </si>
-  <si>
-    <t>116298</t>
-  </si>
-  <si>
-    <t>sr517</t>
-  </si>
-  <si>
-    <t>s440@mail.com</t>
-  </si>
-  <si>
-    <t>111638</t>
+    <t>srxp7059</t>
+  </si>
+  <si>
+    <t>s662@mail.com</t>
+  </si>
+  <si>
+    <t>1111119928</t>
+  </si>
+  <si>
+    <t>srxp1171</t>
+  </si>
+  <si>
+    <t>s5633@mail.com</t>
+  </si>
+  <si>
+    <t>1111113</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -391,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,13 +411,13 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -435,17 +429,6 @@
       </c>
       <c r="C3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/com.test.testAndroidMFP/users/users.xlsx
+++ b/com.test.testAndroidMFP/users/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IdeaProjects\GitHub_tests\com.test.testAndroidMFP\users\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47E616-7A15-4C50-97E4-C9C13EF99129}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B43FBCB-B55D-4C91-BBED-B9E4E53AC932}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="4365" windowWidth="20760" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,36 +25,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>srxp7059</t>
-  </si>
-  <si>
-    <t>s662@mail.com</t>
-  </si>
-  <si>
-    <t>1111119928</t>
-  </si>
-  <si>
-    <t>srxp1171</t>
-  </si>
-  <si>
-    <t>s5633@mail.com</t>
-  </si>
-  <si>
-    <t>1111113</t>
-  </si>
-  <si>
-    <t/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>srxp3039</t>
+  </si>
+  <si>
+    <t>s6247@mail.com</t>
+  </si>
+  <si>
+    <t>1111118476</t>
+  </si>
+  <si>
+    <t>srxp6532</t>
+  </si>
+  <si>
+    <t>s1926@mail.com</t>
+  </si>
+  <si>
+    <t>111111552</t>
+  </si>
+  <si>
+    <t>srxp4646</t>
+  </si>
+  <si>
+    <t>s6914@mail.com</t>
+  </si>
+  <si>
+    <t>1111111887</t>
+  </si>
+  <si>
+    <t>srxp2954</t>
+  </si>
+  <si>
+    <t>s3915@mail.com</t>
+  </si>
+  <si>
+    <t>1111117090</t>
+  </si>
+  <si>
+    <t>srxp2526</t>
+  </si>
+  <si>
+    <t>s2433@mail.com</t>
+  </si>
+  <si>
+    <t>1111112102</t>
+  </si>
+  <si>
+    <t>srxp9933</t>
+  </si>
+  <si>
+    <t>s638@mail.com</t>
+  </si>
+  <si>
+    <t>1111111161</t>
+  </si>
+  <si>
+    <t>srxp2098</t>
+  </si>
+  <si>
+    <t>s5822@mail.com</t>
+  </si>
+  <si>
+    <t>1111112298</t>
   </si>
 </sst>
 </file>
@@ -62,21 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,11 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,41 +418,7 @@
     <col min="2" max="2" customWidth="true" width="26.85546875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
   </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
